--- a/tut06/output/2001CE01.xlsx
+++ b/tut06/output/2001CE01.xlsx
@@ -559,7 +559,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -801,16 +801,16 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
